--- a/biology/Zoologie/Dromoïque_vif-argent/Dromoïque_vif-argent.xlsx
+++ b/biology/Zoologie/Dromoïque_vif-argent/Dromoïque_vif-argent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dromo%C3%AFque_vif-argent</t>
+          <t>Dromoïque_vif-argent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scotocerca inquieta
 La Dromoïque vif-argent ou Dromoïque du désert (Scotocerca inquieta) est une espèce d'oiseaux de l'ordre des Passeriformes, seule représentante de la famille des Scotocercidae et du genre Scotocerca.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dromo%C3%AFque_vif-argent</t>
+          <t>Dromoïque_vif-argent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Cet oiseau peuple de manière éparse les régions désertiques, plus fréquemment les oueds (où la verdure est plus abondante) ainsi que les pierriers pourvus de buissons dans les gorges et les ravins[2].
-Répartition
-Cet oiseau vit en Afrique du Nord (Maroc, Algérie, Tunisie, Mauritanie, nord de la Libye) ; de l'est de l'Égypte au Proche-Orient et à l'Arabie ; de l'Irak à l'Iran et au Kazakhstan, jusqu'en Afghanistan et à l'ouest du Pakistan.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau peuple de manière éparse les régions désertiques, plus fréquemment les oueds (où la verdure est plus abondante) ainsi que les pierriers pourvus de buissons dans les gorges et les ravins.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dromo%C3%AFque_vif-argent</t>
+          <t>Dromoïque_vif-argent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Répartition et habitat</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2011, les travaux d'Alström et al. montrent que l'analyse phylogénique de cette espèce contredit son apparente appartenance à la famille des Cisticolidae. Elle est donc déplacée dans la famille des Cettiidae dans la version 2.7 (2010) de la classification de référence du Congrès ornithologique international. À la suite des travaux de Fregin et al., son placement dans cette famille est écarté, et en attendant des travaux supplémentaires, elle est placée en incertae sedis.
-En 2012, des études génétiques publiées par Fregin et al. montrent que cette espèce ne peut être incluse dans aucune famille existante, bien qu'assez proche des Cettiidae. Il est donc proposé de la placer dans sa propre famille, les Scotocercidae.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit en Afrique du Nord (Maroc, Algérie, Tunisie, Mauritanie, nord de la Libye) ; de l'est de l'Égypte au Proche-Orient et à l'Arabie ; de l'Irak à l'Iran et au Kazakhstan, jusqu'en Afghanistan et à l'ouest du Pakistan.
 </t>
         </is>
       </c>
@@ -560,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dromo%C3%AFque_vif-argent</t>
+          <t>Dromoïque_vif-argent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +595,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, les travaux d'Alström et al. montrent que l'analyse phylogénique de cette espèce contredit son apparente appartenance à la famille des Cisticolidae. Elle est donc déplacée dans la famille des Cettiidae dans la version 2.7 (2010) de la classification de référence du Congrès ornithologique international. À la suite des travaux de Fregin et al., son placement dans cette famille est écarté, et en attendant des travaux supplémentaires, elle est placée en incertae sedis.
+En 2012, des études génétiques publiées par Fregin et al. montrent que cette espèce ne peut être incluse dans aucune famille existante, bien qu'assez proche des Cettiidae. Il est donc proposé de la placer dans sa propre famille, les Scotocercidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dromoïque_vif-argent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dromo%C3%AFque_vif-argent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Scotocerca inquieta buryi Ogilvie-Grant, 1902
